--- a/Table/Datas/SkillString.xlsx
+++ b/Table/Datas/SkillString.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectH\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C36680-CB8B-475C-83FE-88ADAB2796A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B483BB-2EB7-4DE5-AC38-DF3CDBFBDDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>Speed Up</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cerafina_Skill1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성스러운 일격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Attack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,6 +717,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
